--- a/xlsx/白目_intext.xlsx
+++ b/xlsx/白目_intext.xlsx
@@ -29,7 +29,7 @@
     <t>白内障</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_白目</t>
+    <t>政策_政策_维基百科_白目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E7%9C%BC</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E9%96%A9%E5%AD%97</t>
   </si>
   <si>
-    <t>臺閩字</t>
+    <t>台闽字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%A9%B1%E5%AD%97</t>
   </si>
   <si>
-    <t>白話字</t>
+    <t>白话字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E7%BE%85%E9%A6%AC%E5%AD%97%E6%8B%BC%E9%9F%B3%E6%96%B9%E6%A1%88</t>
   </si>
   <si>
-    <t>臺灣閩南語羅馬字拼音方案</t>
+    <t>台湾闽南语罗马字拼音方案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%80%AA</t>
@@ -71,25 +71,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9A%E8%AA%9E</t>
   </si>
   <si>
-    <t>俚語</t>
+    <t>俚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%A9%B1</t>
   </si>
   <si>
-    <t>閩南話</t>
+    <t>闽南话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>網絡遊戲</t>
+    <t>网络游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E6%9D%BF</t>
@@ -101,37 +101,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>網絡排名</t>
+    <t>网络排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓語</t>
+    <t>韩语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%AA%9E</t>
   </si>
   <si>
-    <t>世界語</t>
+    <t>世界语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
+    <t>科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E7%99%BD%E7%9B%AE</t>
